--- a/_resource/excel/1103-离开游戏.xlsx
+++ b/_resource/excel/1103-离开游戏.xlsx
@@ -17,9 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#leave</t>
+  </si>
+  <si>
+    <t>描述说明</t>
   </si>
   <si>
     <t>服务器变量id</t>
@@ -37,19 +40,22 @@
     <t>调用函数</t>
   </si>
   <si>
-    <t>NoteId</t>
+    <t>Description(string)</t>
   </si>
   <si>
-    <t>ChannelId</t>
+    <t>Id(int)</t>
   </si>
   <si>
-    <t>Service</t>
+    <t>Channel(int)</t>
   </si>
   <si>
-    <t>LuaFile</t>
+    <t>Service(int)</t>
   </si>
   <si>
-    <t>LuaFunction</t>
+    <t>LuaFile(string)</t>
+  </si>
+  <si>
+    <t>LuaFunction(string)</t>
   </si>
 </sst>
 </file>
@@ -85,48 +91,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -141,6 +119,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -148,6 +178,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,67 +219,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +231,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -260,6 +266,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,175 +356,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +471,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,21 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,181 +572,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,9 +739,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1161,34 +1164,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="4" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="4" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="16" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="25.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="4" customWidth="1"/>
+    <col min="13" max="14" width="17.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -1196,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1212,18 +1217,21 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:13">
+    <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1237,39 +1245,37 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:13">
+    <row r="4" s="3" customFormat="1" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
